--- a/purchase_list.xlsx
+++ b/purchase_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\开源网课\github_ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB937F09-1EB3-488D-9437-81B9001D2B9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2890AA9B-13D8-4D6F-8497-171B5697047B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.7a8228eeNYfWce&amp;id=597115872531&amp;ns=1&amp;abbucket=7#detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -666,6 +662,9 @@
       <t>左手不回中</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=541378489978&amp;spm=a1z09.2.0.0.ea4d2e8dwctqDn&amp;_u=t2epqo5eaa9f</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1819,7 @@
   <dimension ref="B3:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1833,7 +1832,7 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -1881,7 +1880,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1905,7 +1904,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1918,7 +1917,7 @@
         <v>375</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
@@ -1944,10 +1943,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
         <v>141</v>
-      </c>
-      <c r="E10" t="s">
-        <v>142</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -1960,12 +1959,12 @@
         <v>745</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="29.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1990,7 +1989,7 @@
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2003,33 +2002,33 @@
         <v>1330</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
       <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>149</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" t="s">
         <v>150</v>
-      </c>
-      <c r="H13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2041,15 +2040,15 @@
         <v>1799</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2061,7 +2060,7 @@
         <v>1999</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
@@ -2087,7 +2086,7 @@
     </row>
     <row r="17" spans="2:9" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
         <v>92</v>
@@ -2114,7 +2113,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -2162,14 +2161,14 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>600</v>
+        <v>229</v>
       </c>
       <c r="H20">
         <f>F20*G20</f>
-        <v>600</v>
+        <v>229</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
@@ -2192,7 +2191,7 @@
     </row>
     <row r="22" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -2220,7 +2219,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2238,7 +2237,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -2278,7 +2277,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2323,7 +2322,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
         <v>52</v>
@@ -2383,7 +2382,7 @@
         <v>2180</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
@@ -2416,16 +2415,16 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F34" t="s">
         <v>50</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
@@ -2438,13 +2437,13 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
         <v>164</v>
       </c>
-      <c r="E36" t="s">
+      <c r="I36" t="s">
         <v>165</v>
-      </c>
-      <c r="I36" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
@@ -2474,7 +2473,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
@@ -2494,15 +2493,15 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
         <v>112</v>
-      </c>
-      <c r="E45" t="s">
-        <v>113</v>
       </c>
       <c r="F45">
         <v>143</v>
@@ -2515,15 +2514,15 @@
         <v>143</v>
       </c>
       <c r="I45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" t="s">
         <v>115</v>
-      </c>
-      <c r="E46" t="s">
-        <v>116</v>
       </c>
       <c r="F46">
         <v>11</v>
@@ -2536,12 +2535,12 @@
         <v>11</v>
       </c>
       <c r="I46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -2554,15 +2553,15 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
         <v>120</v>
-      </c>
-      <c r="E48" t="s">
-        <v>121</v>
       </c>
       <c r="F48">
         <v>76.67</v>
@@ -2575,15 +2574,15 @@
         <v>76.67</v>
       </c>
       <c r="I48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F49">
         <v>75</v>
@@ -2596,12 +2595,12 @@
         <v>75</v>
       </c>
       <c r="I49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F50">
         <v>11</v>
@@ -2614,15 +2613,15 @@
         <v>11</v>
       </c>
       <c r="I50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F51">
         <v>10.99</v>
@@ -2635,12 +2634,12 @@
         <v>10.99</v>
       </c>
       <c r="I51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F52">
         <v>49</v>
@@ -2653,15 +2652,15 @@
         <v>49</v>
       </c>
       <c r="I52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" t="s">
         <v>134</v>
-      </c>
-      <c r="E53" t="s">
-        <v>135</v>
       </c>
       <c r="F53">
         <v>10.9</v>
@@ -2674,15 +2673,15 @@
         <v>3.5970000000000004</v>
       </c>
       <c r="I53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" t="s">
         <v>131</v>
-      </c>
-      <c r="E54" t="s">
-        <v>132</v>
       </c>
       <c r="F54">
         <v>19.899999999999999</v>
@@ -2695,7 +2694,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="I54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.4">
@@ -2704,7 +2703,7 @@
     <row r="57" spans="4:9" x14ac:dyDescent="0.4">
       <c r="H57">
         <f>SUM(H6:H30)</f>
-        <v>15717.599999999999</v>
+        <v>15346.599999999999</v>
       </c>
     </row>
   </sheetData>

--- a/purchase_list.xlsx
+++ b/purchase_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\开源网课\github_ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2890AA9B-13D8-4D6F-8497-171B5697047B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48670F5-EDD0-490C-926D-E7A8E0BC7481}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
   <si>
     <t>类目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,6 +665,17 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=541378489978&amp;spm=a1z09.2.0.0.ea4d2e8dwctqDn&amp;_u=t2epqo5eaa9f</t>
+  </si>
+  <si>
+    <t>5寸桨保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.55b9764dryKRqu&amp;id=574989413314&amp;ns=1&amp;abbucket=13#detail</t>
+  </si>
+  <si>
+    <t>根据个人情况选购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1816,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2B767-2823-4771-915E-E7BC0035A5D0}">
-  <dimension ref="B3:I57"/>
+  <dimension ref="B3:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2337,7 +2348,7 @@
         <v>14</v>
       </c>
       <c r="H28">
-        <f>F28*G28</f>
+        <f t="shared" ref="H28:H31" si="3">F28*G28</f>
         <v>28</v>
       </c>
       <c r="I28" t="s">
@@ -2358,7 +2369,7 @@
         <v>11.5</v>
       </c>
       <c r="H29">
-        <f>F29*G29</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -2379,329 +2390,351 @@
         <v>2180</v>
       </c>
       <c r="H30">
+        <f t="shared" si="3"/>
         <v>2180</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C32" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
         <v>51</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>17</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>99</v>
-      </c>
-      <c r="F32" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D34" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" t="s">
-        <v>162</v>
       </c>
       <c r="F34" t="s">
         <v>50</v>
       </c>
       <c r="I34" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F35">
         <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F37">
         <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D40" t="s">
         <v>100</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>101</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45">
-        <v>143</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <f>F45*G45</f>
-        <v>143</v>
-      </c>
-      <c r="I45" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46">
-        <v>11</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <f t="shared" ref="H46:H52" si="3">F46*G46</f>
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>F47*G47</f>
+        <v>143</v>
       </c>
       <c r="I47" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F48">
-        <v>76.67</v>
+        <v>11</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <f t="shared" si="3"/>
-        <v>76.67</v>
+        <f t="shared" ref="H48:H54" si="4">F48*G48</f>
+        <v>11</v>
       </c>
       <c r="I48" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F49">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="3"/>
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="E50" t="s">
+        <v>120</v>
       </c>
       <c r="F50">
-        <v>11</v>
+        <v>76.67</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>76.67</v>
       </c>
       <c r="I50" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D51" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F51">
-        <v>10.99</v>
+        <v>75</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
-        <v>10.99</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
       <c r="I51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F52">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
-        <v>49</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="I52" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F53">
-        <v>10.9</v>
+        <v>10.99</v>
       </c>
       <c r="G53">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <f>F53*G53</f>
-        <v>3.5970000000000004</v>
+        <f t="shared" si="4"/>
+        <v>10.99</v>
       </c>
       <c r="I53" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54">
+        <v>49</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="I54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55">
+        <v>10.9</v>
+      </c>
+      <c r="G55">
+        <v>0.33</v>
+      </c>
+      <c r="H55">
+        <f>F55*G55</f>
+        <v>3.5970000000000004</v>
+      </c>
+      <c r="I55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D56" t="s">
         <v>130</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E56" t="s">
         <v>131</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>19.899999999999999</v>
       </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <f>F54*G54</f>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <f>F56*G56</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I56" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="G55" s="4"/>
-    </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="H57">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="H59">
         <f>SUM(H6:H30)</f>
         <v>15346.599999999999</v>
       </c>

--- a/purchase_list.xlsx
+++ b/purchase_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\开源网课\github_ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48670F5-EDD0-490C-926D-E7A8E0BC7481}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52725A51-E5E2-4AEB-92F3-229C908F7404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="176">
   <si>
     <t>类目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,6 +676,16 @@
   <si>
     <t>根据个人情况选购</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.6.72b83b20uNbZk7&amp;id=656973651729&amp;ns=1&amp;abbucket=19#detail</t>
+  </si>
+  <si>
+    <t>短路保护器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=600829968368&amp;ali_refid=a3_430582_1006:1150374273:N:AKUHmrJUzrt3v5Ro05cahaWipOgHIbxh:b8192277632fc8796a134ac616741b67&amp;ali_trackid=1_b8192277632fc8796a134ac616741b67&amp;spm=a230r.1.14.1#detail</t>
   </si>
 </sst>
 </file>
@@ -1829,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2B767-2823-4771-915E-E7BC0035A5D0}">
   <dimension ref="B3:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2278,13 +2288,14 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
-        <v>3.8</v>
-      </c>
-      <c r="I25" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
@@ -2348,7 +2359,7 @@
         <v>14</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H31" si="3">F28*G28</f>
+        <f t="shared" ref="H28:H32" si="3">F28*G28</f>
         <v>28</v>
       </c>
       <c r="I28" t="s">
@@ -2418,6 +2429,24 @@
         <v>171</v>
       </c>
     </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>51</v>
@@ -2736,7 +2765,7 @@
     <row r="59" spans="4:9" x14ac:dyDescent="0.4">
       <c r="H59">
         <f>SUM(H6:H30)</f>
-        <v>15346.599999999999</v>
+        <v>15345.8</v>
       </c>
     </row>
   </sheetData>

--- a/purchase_list.xlsx
+++ b/purchase_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\开源网课\github_ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52725A51-E5E2-4AEB-92F3-229C908F7404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310BD62C-BE6F-4A75-BF7D-2432C5BDA972}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1839,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2B767-2823-4771-915E-E7BC0035A5D0}">
   <dimension ref="B3:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2249,7 +2249,7 @@
         <v>580</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H25" si="2">F23*G23</f>
+        <f t="shared" ref="H23:H24" si="2">F23*G23</f>
         <v>580</v>
       </c>
       <c r="I23" t="s">
